--- a/notebooks/output/poverty.xlsx
+++ b/notebooks/output/poverty.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="29005"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dara/Documents/GitHub/phx/notebooks/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="2021_1YR" sheetId="1" r:id="rId1"/>
     <sheet name="2010_1YR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -341,8 +354,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +365,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -391,20 +411,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -451,12 +480,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -483,14 +512,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -517,6 +547,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,14 +723,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BA10" sqref="BA10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -859,7 +895,7 @@
         <v>9095</v>
       </c>
       <c r="D2">
-        <v>4.719040789972098</v>
+        <v>4.7190407899720981</v>
       </c>
       <c r="E2">
         <v>634975</v>
@@ -877,7 +913,7 @@
         <v>5878</v>
       </c>
       <c r="J2">
-        <v>10.39763801325513</v>
+        <v>10.397638013255129</v>
       </c>
       <c r="K2">
         <v>687139</v>
@@ -895,7 +931,7 @@
         <v>17528</v>
       </c>
       <c r="P2">
-        <v>4.450322915004165</v>
+        <v>4.4503229150041648</v>
       </c>
       <c r="Q2">
         <v>23889</v>
@@ -904,7 +940,7 @@
         <v>5159</v>
       </c>
       <c r="S2">
-        <v>13.12809331812113</v>
+        <v>13.128093318121129</v>
       </c>
       <c r="T2">
         <v>75423</v>
@@ -913,7 +949,7 @@
         <v>7712</v>
       </c>
       <c r="V2">
-        <v>6.215804060640037</v>
+        <v>6.2158040606400373</v>
       </c>
       <c r="W2">
         <v>8714</v>
@@ -922,7 +958,7 @@
         <v>3214</v>
       </c>
       <c r="Y2">
-        <v>22.42138388911252</v>
+        <v>22.421383889112519</v>
       </c>
       <c r="Z2">
         <v>746719</v>
@@ -931,7 +967,7 @@
         <v>17403</v>
       </c>
       <c r="AB2">
-        <v>1.416775427837096</v>
+        <v>1.4167754278370961</v>
       </c>
       <c r="AC2">
         <v>7144</v>
@@ -940,7 +976,7 @@
         <v>2786</v>
       </c>
       <c r="AE2">
-        <v>23.70684520263992</v>
+        <v>23.706845202639919</v>
       </c>
       <c r="AF2">
         <v>54519</v>
@@ -949,7 +985,7 @@
         <v>5594</v>
       </c>
       <c r="AH2">
-        <v>6.237472996084965</v>
+        <v>6.2374729960849651</v>
       </c>
       <c r="AI2">
         <v>123404</v>
@@ -967,7 +1003,7 @@
         <v>15548</v>
       </c>
       <c r="AN2">
-        <v>6.80652138995751</v>
+        <v>6.8065213899575099</v>
       </c>
       <c r="AO2">
         <v>1602147</v>
@@ -976,7 +1012,7 @@
         <v>4965</v>
       </c>
       <c r="AQ2">
-        <v>0.1883870257889488</v>
+        <v>0.18838702578894881</v>
       </c>
       <c r="AR2">
         <v>66184</v>
@@ -985,7 +1021,7 @@
         <v>7205</v>
       </c>
       <c r="AT2">
-        <v>6.617821844745624</v>
+        <v>6.6178218447456238</v>
       </c>
       <c r="AU2">
         <v>636420</v>
@@ -996,8 +1032,10 @@
       <c r="AW2">
         <v>1.243467806095055</v>
       </c>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="3"/>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1008,7 +1046,7 @@
         <v>8386</v>
       </c>
       <c r="D3">
-        <v>2.097898485354068</v>
+        <v>2.0978984853540679</v>
       </c>
       <c r="E3">
         <v>1335655</v>
@@ -1026,7 +1064,7 @@
         <v>8162</v>
       </c>
       <c r="J3">
-        <v>6.144218401143688</v>
+        <v>6.1442184011436876</v>
       </c>
       <c r="K3">
         <v>1418072</v>
@@ -1035,7 +1073,7 @@
         <v>3300</v>
       </c>
       <c r="M3">
-        <v>0.1414652448786538</v>
+        <v>0.14146524487865381</v>
       </c>
       <c r="N3">
         <v>496359</v>
@@ -1053,7 +1091,7 @@
         <v>5525</v>
       </c>
       <c r="S3">
-        <v>8.663492091368557</v>
+        <v>8.6634920913685569</v>
       </c>
       <c r="T3">
         <v>212299</v>
@@ -1062,7 +1100,7 @@
         <v>13179</v>
       </c>
       <c r="V3">
-        <v>3.773710734377309</v>
+        <v>3.7737107343773091</v>
       </c>
       <c r="W3">
         <v>18442</v>
@@ -1071,7 +1109,7 @@
         <v>3801</v>
       </c>
       <c r="Y3">
-        <v>12.52921753536677</v>
+        <v>12.529217535366771</v>
       </c>
       <c r="Z3">
         <v>2570024</v>
@@ -1080,7 +1118,7 @@
         <v>19808</v>
       </c>
       <c r="AB3">
-        <v>0.4685301532599788</v>
+        <v>0.46853015325997882</v>
       </c>
       <c r="AC3">
         <v>20376</v>
@@ -1089,7 +1127,7 @@
         <v>4386</v>
       </c>
       <c r="AE3">
-        <v>13.08530328904737</v>
+        <v>13.085303289047371</v>
       </c>
       <c r="AF3">
         <v>175053</v>
@@ -1098,7 +1136,7 @@
         <v>10797</v>
       </c>
       <c r="AH3">
-        <v>3.749450644014248</v>
+        <v>3.7494506440142481</v>
       </c>
       <c r="AI3">
         <v>205477</v>
@@ -1116,7 +1154,7 @@
         <v>18485</v>
       </c>
       <c r="AN3">
-        <v>4.907729964086223</v>
+        <v>4.9077299640862231</v>
       </c>
       <c r="AO3">
         <v>4431445</v>
@@ -1125,7 +1163,7 @@
         <v>6907</v>
       </c>
       <c r="AQ3">
-        <v>0.09474977562688638</v>
+        <v>9.4749775626886384E-2</v>
       </c>
       <c r="AR3">
         <v>192907</v>
@@ -1143,10 +1181,12 @@
         <v>7447</v>
       </c>
       <c r="AW3">
-        <v>0.1957691374032202</v>
-      </c>
+        <v>0.19576913740322019</v>
+      </c>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="3"/>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1157,7 +1197,7 @@
         <v>84652</v>
       </c>
       <c r="D4">
-        <v>0.1335377541131822</v>
+        <v>0.13353775411318219</v>
       </c>
       <c r="E4">
         <v>65225232</v>
@@ -1166,7 +1206,7 @@
         <v>231468.8014441687</v>
       </c>
       <c r="G4">
-        <v>0.2157301910328802</v>
+        <v>0.21573019103288019</v>
       </c>
       <c r="H4">
         <v>3066848</v>
@@ -1175,7 +1215,7 @@
         <v>41075</v>
       </c>
       <c r="J4">
-        <v>0.814178102834633</v>
+        <v>0.81417810283463299</v>
       </c>
       <c r="K4">
         <v>61398400</v>
@@ -1184,7 +1224,7 @@
         <v>19073</v>
       </c>
       <c r="M4">
-        <v>0.01888408961044578</v>
+        <v>1.888408961044578E-2</v>
       </c>
       <c r="N4">
         <v>41393176</v>
@@ -1193,7 +1233,7 @@
         <v>243679</v>
       </c>
       <c r="P4">
-        <v>0.3578684822326467</v>
+        <v>0.35786848223264672</v>
       </c>
       <c r="Q4">
         <v>8402643</v>
@@ -1202,7 +1242,7 @@
         <v>89772</v>
       </c>
       <c r="S4">
-        <v>0.6494699867279818</v>
+        <v>0.64946998672798184</v>
       </c>
       <c r="T4">
         <v>19510415</v>
@@ -1211,7 +1251,7 @@
         <v>143802</v>
       </c>
       <c r="V4">
-        <v>0.4480562262736661</v>
+        <v>0.44805622627366609</v>
       </c>
       <c r="W4">
         <v>656007</v>
@@ -1220,7 +1260,7 @@
         <v>16519</v>
       </c>
       <c r="Y4">
-        <v>1.530768008383112</v>
+        <v>1.5307680083831121</v>
       </c>
       <c r="Z4">
         <v>198511109</v>
@@ -1229,7 +1269,7 @@
         <v>127773</v>
       </c>
       <c r="AB4">
-        <v>0.0391280652363909</v>
+        <v>3.9128065236390903E-2</v>
       </c>
       <c r="AC4">
         <v>1918933</v>
@@ -1238,7 +1278,7 @@
         <v>37498</v>
       </c>
       <c r="AE4">
-        <v>1.187906861683837</v>
+        <v>1.1879068616838371</v>
       </c>
       <c r="AF4">
         <v>17821856</v>
@@ -1247,7 +1287,7 @@
         <v>134415</v>
       </c>
       <c r="AH4">
-        <v>0.4584889822957154</v>
+        <v>0.45848898229571539</v>
       </c>
       <c r="AI4">
         <v>10905178</v>
@@ -1256,7 +1296,7 @@
         <v>109680.1902852106</v>
       </c>
       <c r="AK4">
-        <v>0.6114057717478266</v>
+        <v>0.61140577174782662</v>
       </c>
       <c r="AL4">
         <v>10759082</v>
@@ -1265,7 +1305,7 @@
         <v>116603</v>
       </c>
       <c r="AN4">
-        <v>0.6588227757235425</v>
+        <v>0.65882277572354253</v>
       </c>
       <c r="AO4">
         <v>324173084</v>
@@ -1274,7 +1314,7 @@
         <v>30338</v>
       </c>
       <c r="AQ4">
-        <v>0.005689106869677485</v>
+        <v>5.6891068696774847E-3</v>
       </c>
       <c r="AR4">
         <v>18833840</v>
@@ -1283,7 +1323,7 @@
         <v>47987</v>
       </c>
       <c r="AT4">
-        <v>0.1548883741787579</v>
+        <v>0.15488837417875789</v>
       </c>
       <c r="AU4">
         <v>188537199</v>
@@ -1292,10 +1332,12 @@
         <v>56708</v>
       </c>
       <c r="AW4">
-        <v>0.01828442795963436</v>
-      </c>
+        <v>1.828442795963436E-2</v>
+      </c>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="3"/>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1324,7 +1366,7 @@
         <v>10243</v>
       </c>
       <c r="J5">
-        <v>2.179577480298209</v>
+        <v>2.1795774802982089</v>
       </c>
       <c r="K5">
         <v>2308717</v>
@@ -1333,7 +1375,7 @@
         <v>3146</v>
       </c>
       <c r="M5">
-        <v>0.08283657139783816</v>
+        <v>8.2836571397838163E-2</v>
       </c>
       <c r="N5">
         <v>908961</v>
@@ -1342,7 +1384,7 @@
         <v>26990</v>
       </c>
       <c r="P5">
-        <v>1.805060374738492</v>
+        <v>1.8050603747384919</v>
       </c>
       <c r="Q5">
         <v>51696</v>
@@ -1351,7 +1393,7 @@
         <v>6186</v>
       </c>
       <c r="S5">
-        <v>7.27423073775234</v>
+        <v>7.2742307377523403</v>
       </c>
       <c r="T5">
         <v>399147</v>
@@ -1360,7 +1402,7 @@
         <v>16558</v>
       </c>
       <c r="V5">
-        <v>2.521791093366787</v>
+        <v>2.5217910933667871</v>
       </c>
       <c r="W5">
         <v>84672</v>
@@ -1369,7 +1411,7 @@
         <v>6472</v>
       </c>
       <c r="Y5">
-        <v>4.646573252739124</v>
+        <v>4.6465732527391239</v>
       </c>
       <c r="Z5">
         <v>4156705</v>
@@ -1378,7 +1420,7 @@
         <v>22636</v>
       </c>
       <c r="AB5">
-        <v>0.3310431296468825</v>
+        <v>0.33104312964688248</v>
       </c>
       <c r="AC5">
         <v>25800</v>
@@ -1396,7 +1438,7 @@
         <v>14971</v>
       </c>
       <c r="AH5">
-        <v>2.782966239000234</v>
+        <v>2.7829662390002339</v>
       </c>
       <c r="AI5">
         <v>346454</v>
@@ -1414,7 +1456,7 @@
         <v>20900</v>
       </c>
       <c r="AN5">
-        <v>3.20483081169118</v>
+        <v>3.2048308116911799</v>
       </c>
       <c r="AO5">
         <v>7126930</v>
@@ -1423,7 +1465,7 @@
         <v>3616</v>
       </c>
       <c r="AQ5">
-        <v>0.03084324234689148</v>
+        <v>3.0843242346891481E-2</v>
       </c>
       <c r="AR5">
         <v>242930</v>
@@ -1441,10 +1483,12 @@
         <v>9171</v>
       </c>
       <c r="AW5">
-        <v>0.1502413392193525</v>
-      </c>
+        <v>0.15024133921935251</v>
+      </c>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="3"/>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1482,7 +1526,7 @@
         <v>5039</v>
       </c>
       <c r="M6">
-        <v>6.950494383051551</v>
+        <v>6.9504943830515513</v>
       </c>
       <c r="N6">
         <v>28731</v>
@@ -1491,7 +1535,7 @@
         <v>4629</v>
       </c>
       <c r="P6">
-        <v>9.794235365695357</v>
+        <v>9.7942353656953571</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1509,7 +1553,7 @@
         <v>2599</v>
       </c>
       <c r="V6">
-        <v>11.98739916332658</v>
+        <v>11.987399163326581</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1527,7 +1571,7 @@
         <v>5590</v>
       </c>
       <c r="AB6">
-        <v>3.339140291440643</v>
+        <v>3.3391402914406432</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1545,7 +1589,7 @@
         <v>2411</v>
       </c>
       <c r="AH6">
-        <v>12.17117999867738</v>
+        <v>12.171179998677379</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1572,7 +1616,7 @@
         <v>3142</v>
       </c>
       <c r="AQ6">
-        <v>1.111135256829172</v>
+        <v>1.1111352568291719</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -1590,10 +1634,12 @@
         <v>5649</v>
       </c>
       <c r="AW6">
-        <v>3.726781217853915</v>
-      </c>
+        <v>3.7267812178539148</v>
+      </c>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="3"/>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1658,7 +1704,7 @@
         <v>2173</v>
       </c>
       <c r="V7">
-        <v>11.20798103153657</v>
+        <v>11.207981031536571</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1739,10 +1785,12 @@
         <v>6248</v>
       </c>
       <c r="AW7">
-        <v>2.038096518973225</v>
-      </c>
+        <v>2.0380965189732252</v>
+      </c>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="3"/>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1780,7 +1828,7 @@
         <v>7482</v>
       </c>
       <c r="M8">
-        <v>4.558767845844187</v>
+        <v>4.5587678458441871</v>
       </c>
       <c r="N8">
         <v>34515</v>
@@ -1807,7 +1855,7 @@
         <v>2895</v>
       </c>
       <c r="V8">
-        <v>12.24689227176679</v>
+        <v>12.246892271766789</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1825,7 +1873,7 @@
         <v>7161</v>
       </c>
       <c r="AB8">
-        <v>3.677862396175887</v>
+        <v>3.6778623961758869</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1843,7 +1891,7 @@
         <v>2684</v>
       </c>
       <c r="AH8">
-        <v>13.35197170416727</v>
+        <v>13.351971704167269</v>
       </c>
       <c r="AI8">
         <v>12577</v>
@@ -1861,7 +1909,7 @@
         <v>4709</v>
       </c>
       <c r="AN8">
-        <v>17.43370269039536</v>
+        <v>17.433702690395361</v>
       </c>
       <c r="AO8">
         <v>246121</v>
@@ -1890,8 +1938,10 @@
       <c r="AW8">
         <v>3.990013713034791</v>
       </c>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="3"/>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1902,7 +1952,7 @@
         <v>6743</v>
       </c>
       <c r="D9">
-        <v>4.647966511204836</v>
+        <v>4.6479665112048361</v>
       </c>
       <c r="E9">
         <v>732739</v>
@@ -1929,7 +1979,7 @@
         <v>11833</v>
       </c>
       <c r="M9">
-        <v>0.752650386971733</v>
+        <v>0.75265038697173303</v>
       </c>
       <c r="N9">
         <v>242923</v>
@@ -1938,7 +1988,7 @@
         <v>16408</v>
       </c>
       <c r="P9">
-        <v>4.106020461259898</v>
+        <v>4.1060204612598978</v>
       </c>
       <c r="Q9">
         <v>20363</v>
@@ -1947,7 +1997,7 @@
         <v>5067</v>
       </c>
       <c r="S9">
-        <v>15.12666680299673</v>
+        <v>15.126666802996731</v>
       </c>
       <c r="T9">
         <v>77868</v>
@@ -1956,7 +2006,7 @@
         <v>8653</v>
       </c>
       <c r="V9">
-        <v>6.755255523219638</v>
+        <v>6.7552555232196383</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1974,7 +2024,7 @@
         <v>19181</v>
       </c>
       <c r="AB9">
-        <v>2.121533661229609</v>
+        <v>2.1215336612296092</v>
       </c>
       <c r="AC9">
         <v>4510</v>
@@ -1992,7 +2042,7 @@
         <v>3911</v>
       </c>
       <c r="AH9">
-        <v>8.443453365949978</v>
+        <v>8.4434533659499778</v>
       </c>
       <c r="AI9">
         <v>137843</v>
@@ -2010,7 +2060,7 @@
         <v>14697</v>
       </c>
       <c r="AN9">
-        <v>4.741215508681422</v>
+        <v>4.7412155086814218</v>
       </c>
       <c r="AO9">
         <v>1431093</v>
@@ -2019,7 +2069,7 @@
         <v>9440</v>
       </c>
       <c r="AQ9">
-        <v>0.4009943325631672</v>
+        <v>0.40099433256316719</v>
       </c>
       <c r="AR9">
         <v>40821</v>
@@ -2028,7 +2078,7 @@
         <v>5010</v>
       </c>
       <c r="AT9">
-        <v>7.460847860579538</v>
+        <v>7.4608478605795376</v>
       </c>
       <c r="AU9">
         <v>313031</v>
@@ -2037,10 +2087,12 @@
         <v>10931</v>
       </c>
       <c r="AW9">
-        <v>2.122788095246672</v>
-      </c>
+        <v>2.1227880952466718</v>
+      </c>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="3"/>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2078,7 +2130,7 @@
         <v>13885</v>
       </c>
       <c r="M10">
-        <v>1.570622497647559</v>
+        <v>1.5706224976475589</v>
       </c>
       <c r="N10">
         <v>209645</v>
@@ -2087,7 +2139,7 @@
         <v>17805</v>
       </c>
       <c r="P10">
-        <v>5.162874481474364</v>
+        <v>5.1628744814743639</v>
       </c>
       <c r="Q10">
         <v>79725</v>
@@ -2096,7 +2148,7 @@
         <v>12600</v>
       </c>
       <c r="S10">
-        <v>9.607493845199254</v>
+        <v>9.6074938451992544</v>
       </c>
       <c r="T10">
         <v>39224</v>
@@ -2105,7 +2157,7 @@
         <v>6598</v>
       </c>
       <c r="V10">
-        <v>10.2257348797678</v>
+        <v>10.225734879767799</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2132,7 +2184,7 @@
         <v>2065</v>
       </c>
       <c r="AE10">
-        <v>17.3123589702961</v>
+        <v>17.312358970296099</v>
       </c>
       <c r="AF10">
         <v>26965</v>
@@ -2141,7 +2193,7 @@
         <v>4350</v>
       </c>
       <c r="AH10">
-        <v>9.806700907457994</v>
+        <v>9.8067009074579943</v>
       </c>
       <c r="AI10">
         <v>82199</v>
@@ -2159,7 +2211,7 @@
         <v>12090</v>
       </c>
       <c r="AN10">
-        <v>7.727658398381116</v>
+        <v>7.7276583983811156</v>
       </c>
       <c r="AO10">
         <v>1272984</v>
@@ -2168,7 +2220,7 @@
         <v>6342</v>
       </c>
       <c r="AQ10">
-        <v>0.3028568425790246</v>
+        <v>0.30285684257902462</v>
       </c>
       <c r="AR10">
         <v>44476</v>
@@ -2177,7 +2229,7 @@
         <v>5756</v>
       </c>
       <c r="AT10">
-        <v>7.867362500891844</v>
+        <v>7.8673625008918444</v>
       </c>
       <c r="AU10">
         <v>354656</v>
@@ -2188,8 +2240,10 @@
       <c r="AW10">
         <v>2.123552679464455</v>
       </c>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="3"/>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2227,7 +2281,7 @@
         <v>1882</v>
       </c>
       <c r="M11">
-        <v>1.055661313336348</v>
+        <v>1.0556613133363479</v>
       </c>
       <c r="N11">
         <v>142940</v>
@@ -2236,7 +2290,7 @@
         <v>16894</v>
       </c>
       <c r="P11">
-        <v>7.184769004190336</v>
+        <v>7.1847690041903363</v>
       </c>
       <c r="Q11">
         <v>73191</v>
@@ -2245,7 +2299,7 @@
         <v>11464</v>
       </c>
       <c r="S11">
-        <v>9.521658346635956</v>
+        <v>9.5216583466359559</v>
       </c>
       <c r="T11">
         <v>50088</v>
@@ -2254,7 +2308,7 @@
         <v>8117</v>
       </c>
       <c r="V11">
-        <v>9.851354624978578</v>
+        <v>9.8513546249785779</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2272,7 +2326,7 @@
         <v>8360</v>
       </c>
       <c r="AB11">
-        <v>1.08893888122771</v>
+        <v>1.0889388812277101</v>
       </c>
       <c r="AC11">
         <v>3320</v>
@@ -2281,7 +2335,7 @@
         <v>1478</v>
       </c>
       <c r="AE11">
-        <v>27.06265792653898</v>
+        <v>27.062657926538979</v>
       </c>
       <c r="AF11">
         <v>47959</v>
@@ -2308,7 +2362,7 @@
         <v>5041</v>
       </c>
       <c r="AN11">
-        <v>22.46490499207979</v>
+        <v>22.464904992079791</v>
       </c>
       <c r="AO11">
         <v>930122</v>
@@ -2317,7 +2371,7 @@
         <v>7601</v>
       </c>
       <c r="AQ11">
-        <v>0.4967809269116437</v>
+        <v>0.49678092691164372</v>
       </c>
       <c r="AR11">
         <v>46861</v>
@@ -2326,7 +2380,7 @@
         <v>3490</v>
       </c>
       <c r="AT11">
-        <v>4.527390681190034</v>
+        <v>4.5273906811900337</v>
       </c>
       <c r="AU11">
         <v>446469</v>
@@ -2335,8 +2389,10 @@
         <v>7012</v>
       </c>
       <c r="AW11">
-        <v>0.954739070744647</v>
-      </c>
+        <v>0.95473907074464703</v>
+      </c>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2344,14 +2400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +2556,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -2511,7 +2567,7 @@
         <v>7509</v>
       </c>
       <c r="D2">
-        <v>4.660467646802713</v>
+        <v>4.6604676468027133</v>
       </c>
       <c r="E2">
         <v>150769</v>
@@ -2547,7 +2603,7 @@
         <v>19024</v>
       </c>
       <c r="P2">
-        <v>3.596449073683725</v>
+        <v>3.5964490736837251</v>
       </c>
       <c r="Q2">
         <v>32145</v>
@@ -2556,7 +2612,7 @@
         <v>5071</v>
       </c>
       <c r="S2">
-        <v>9.589904408264035</v>
+        <v>9.5899044082640348</v>
       </c>
       <c r="T2">
         <v>235908</v>
@@ -2583,7 +2639,7 @@
         <v>14782</v>
       </c>
       <c r="AB2">
-        <v>0.8061284148549508</v>
+        <v>0.80612841485495079</v>
       </c>
       <c r="AC2">
         <v>4067</v>
@@ -2601,7 +2657,7 @@
         <v>7898</v>
       </c>
       <c r="AH2">
-        <v>5.784597355989306</v>
+        <v>5.7845973559893062</v>
       </c>
       <c r="AI2">
         <v>42048</v>
@@ -2619,7 +2675,7 @@
         <v>16691</v>
       </c>
       <c r="AN2">
-        <v>5.201735137532307</v>
+        <v>5.2017351375323067</v>
       </c>
       <c r="AO2">
         <v>1430852</v>
@@ -2637,7 +2693,7 @@
         <v>5937</v>
       </c>
       <c r="AT2">
-        <v>8.624969628470391</v>
+        <v>8.6249696284703905</v>
       </c>
       <c r="AU2">
         <v>683246</v>
@@ -2646,10 +2702,10 @@
         <v>12588</v>
       </c>
       <c r="AW2">
-        <v>1.119988940331646</v>
+        <v>1.1199889403316461</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2660,7 +2716,7 @@
         <v>4834</v>
       </c>
       <c r="D3">
-        <v>1.523744295533516</v>
+        <v>1.5237442955335161</v>
       </c>
       <c r="E3">
         <v>319030</v>
@@ -2696,7 +2752,7 @@
         <v>24407</v>
       </c>
       <c r="P3">
-        <v>2.378496037497423</v>
+        <v>2.3784960374974231</v>
       </c>
       <c r="Q3">
         <v>50844</v>
@@ -2705,7 +2761,7 @@
         <v>5895</v>
       </c>
       <c r="S3">
-        <v>7.04819964231732</v>
+        <v>7.0481996423173197</v>
       </c>
       <c r="T3">
         <v>466075</v>
@@ -2714,7 +2770,7 @@
         <v>20182</v>
       </c>
       <c r="V3">
-        <v>2.632343079787275</v>
+        <v>2.6323430797872751</v>
       </c>
       <c r="W3">
         <v>16471</v>
@@ -2723,7 +2779,7 @@
         <v>4011</v>
       </c>
       <c r="Y3">
-        <v>14.8035812782492</v>
+        <v>14.803581278249199</v>
       </c>
       <c r="Z3">
         <v>3064177</v>
@@ -2732,7 +2788,7 @@
         <v>18989</v>
       </c>
       <c r="AB3">
-        <v>0.3767231803382345</v>
+        <v>0.37672318033823449</v>
       </c>
       <c r="AC3">
         <v>13073</v>
@@ -2741,7 +2797,7 @@
         <v>3829</v>
       </c>
       <c r="AE3">
-        <v>17.80509121447323</v>
+        <v>17.805091214473229</v>
       </c>
       <c r="AF3">
         <v>227363</v>
@@ -2750,7 +2806,7 @@
         <v>12918</v>
       </c>
       <c r="AH3">
-        <v>3.453898628182212</v>
+        <v>3.4538986281822122</v>
       </c>
       <c r="AI3">
         <v>76157</v>
@@ -2777,7 +2833,7 @@
         <v>5344</v>
       </c>
       <c r="AQ3">
-        <v>0.08598609929474907</v>
+        <v>8.5986099294749069E-2</v>
       </c>
       <c r="AR3">
         <v>128263</v>
@@ -2786,7 +2842,7 @@
         <v>4184</v>
       </c>
       <c r="AT3">
-        <v>1.983007605928994</v>
+        <v>1.9830076059289941</v>
       </c>
       <c r="AU3">
         <v>2217970</v>
@@ -2795,10 +2851,10 @@
         <v>3603</v>
       </c>
       <c r="AW3">
-        <v>0.09875127058666272</v>
+        <v>9.8751270586662721E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2809,16 +2865,16 @@
         <v>54789</v>
       </c>
       <c r="D4">
-        <v>0.08953271957393874</v>
+        <v>8.953271957393874E-2</v>
       </c>
       <c r="E4">
         <v>23212045</v>
       </c>
       <c r="F4">
-        <v>143088.286875621</v>
+        <v>143088.28687562101</v>
       </c>
       <c r="G4">
-        <v>0.3747354488525874</v>
+        <v>0.37473544885258742</v>
       </c>
       <c r="H4">
         <v>2465461</v>
@@ -2827,7 +2883,7 @@
         <v>28862</v>
       </c>
       <c r="J4">
-        <v>0.7116433297383082</v>
+        <v>0.71164332973830824</v>
       </c>
       <c r="K4">
         <v>49703511</v>
@@ -2836,7 +2892,7 @@
         <v>19654</v>
       </c>
       <c r="M4">
-        <v>0.02403798066647976</v>
+        <v>2.4037980666479761E-2</v>
       </c>
       <c r="N4">
         <v>46215956</v>
@@ -2845,7 +2901,7 @@
         <v>240306</v>
       </c>
       <c r="P4">
-        <v>0.3160870993819461</v>
+        <v>0.31608709938194612</v>
       </c>
       <c r="Q4">
         <v>10099631</v>
@@ -2863,7 +2919,7 @@
         <v>171930</v>
       </c>
       <c r="V4">
-        <v>0.3739183051038374</v>
+        <v>0.37391830510383739</v>
       </c>
       <c r="W4">
         <v>701213</v>
@@ -2881,7 +2937,7 @@
         <v>136015</v>
       </c>
       <c r="AB4">
-        <v>0.03687996007049361</v>
+        <v>3.6879960070493607E-2</v>
       </c>
       <c r="AC4">
         <v>1801196</v>
@@ -2890,7 +2946,7 @@
         <v>35881</v>
       </c>
       <c r="AE4">
-        <v>1.210981928380434</v>
+        <v>1.2109819283804339</v>
       </c>
       <c r="AF4">
         <v>20437539</v>
@@ -2899,16 +2955,16 @@
         <v>135747</v>
       </c>
       <c r="AH4">
-        <v>0.4037715727141947</v>
+        <v>0.40377157271419473</v>
       </c>
       <c r="AI4">
         <v>5662164</v>
       </c>
       <c r="AJ4">
-        <v>73953.27591121302</v>
+        <v>73953.275911213015</v>
       </c>
       <c r="AK4">
-        <v>0.7939790993376504</v>
+        <v>0.79397909933765043</v>
       </c>
       <c r="AL4">
         <v>12306535</v>
@@ -2926,7 +2982,7 @@
         <v>22099</v>
       </c>
       <c r="AQ4">
-        <v>0.004455218007062433</v>
+        <v>4.4552180070624326E-3</v>
       </c>
       <c r="AR4">
         <v>14459936</v>
@@ -2935,7 +2991,7 @@
         <v>31213</v>
       </c>
       <c r="AT4">
-        <v>0.1312209686481765</v>
+        <v>0.13122096864817651</v>
       </c>
       <c r="AU4">
         <v>192355136</v>
@@ -2944,10 +3000,10 @@
         <v>40333</v>
       </c>
       <c r="AW4">
-        <v>0.01274649668487908</v>
+        <v>1.274649668487908E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2976,7 +3032,7 @@
         <v>7261</v>
       </c>
       <c r="J5">
-        <v>1.604290882660914</v>
+        <v>1.6042908826609139</v>
       </c>
       <c r="K5">
         <v>1860757</v>
@@ -2985,7 +3041,7 @@
         <v>3971</v>
       </c>
       <c r="M5">
-        <v>0.1297311665584455</v>
+        <v>0.12973116655844549</v>
       </c>
       <c r="N5">
         <v>1094249</v>
@@ -2994,7 +3050,7 @@
         <v>33633</v>
       </c>
       <c r="P5">
-        <v>1.868458888714284</v>
+        <v>1.8684588887142839</v>
       </c>
       <c r="Q5">
         <v>63436</v>
@@ -3003,7 +3059,7 @@
         <v>6497</v>
       </c>
       <c r="S5">
-        <v>6.226029498941182</v>
+        <v>6.2260294989411822</v>
       </c>
       <c r="T5">
         <v>773330</v>
@@ -3012,7 +3068,7 @@
         <v>27539</v>
       </c>
       <c r="V5">
-        <v>2.164798137231254</v>
+        <v>2.1647981372312541</v>
       </c>
       <c r="W5">
         <v>101556</v>
@@ -3021,7 +3077,7 @@
         <v>8425</v>
       </c>
       <c r="Y5">
-        <v>5.043109759258401</v>
+        <v>5.0431097592584013</v>
       </c>
       <c r="Z5">
         <v>4995980</v>
@@ -3030,7 +3086,7 @@
         <v>24595</v>
       </c>
       <c r="AB5">
-        <v>0.2992679670686235</v>
+        <v>0.29926796706862352</v>
       </c>
       <c r="AC5">
         <v>20311</v>
@@ -3048,7 +3104,7 @@
         <v>17658</v>
       </c>
       <c r="AH5">
-        <v>2.637463974879119</v>
+        <v>2.6374639748791191</v>
       </c>
       <c r="AI5">
         <v>134168</v>
@@ -3075,7 +3131,7 @@
         <v>3673</v>
       </c>
       <c r="AQ5">
-        <v>0.03559602294328721</v>
+        <v>3.559602294328721E-2</v>
       </c>
       <c r="AR5">
         <v>170460</v>
@@ -3084,7 +3140,7 @@
         <v>4870</v>
       </c>
       <c r="AT5">
-        <v>1.736763065932447</v>
+        <v>1.7367630659324469</v>
       </c>
       <c r="AU5">
         <v>3638511</v>
@@ -3093,10 +3149,10 @@
         <v>4365</v>
       </c>
       <c r="AW5">
-        <v>0.07292805877815081</v>
+        <v>7.2928058778150812E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3134,7 +3190,7 @@
         <v>5618</v>
       </c>
       <c r="M6">
-        <v>10.50409857099947</v>
+        <v>10.504098570999471</v>
       </c>
       <c r="N6">
         <v>39965</v>
@@ -3143,7 +3199,7 @@
         <v>5888</v>
       </c>
       <c r="P6">
-        <v>8.956164911775007</v>
+        <v>8.9561649117750068</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -3179,7 +3235,7 @@
         <v>5271</v>
       </c>
       <c r="AB6">
-        <v>2.652024299304715</v>
+        <v>2.6520242993047152</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -3197,7 +3253,7 @@
         <v>3623</v>
       </c>
       <c r="AH6">
-        <v>12.16073994225746</v>
+        <v>12.160739942257459</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -3215,7 +3271,7 @@
         <v>4063</v>
       </c>
       <c r="AN6">
-        <v>20.67042275160822</v>
+        <v>20.670422751608221</v>
       </c>
       <c r="AO6">
         <v>153099</v>
@@ -3245,7 +3301,7 @@
         <v>3.983694045961375</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -3373,7 +3429,7 @@
         <v>987</v>
       </c>
       <c r="AQ7">
-        <v>0.2767948995926501</v>
+        <v>0.27679489959265008</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3391,10 +3447,10 @@
         <v>4764</v>
       </c>
       <c r="AW7">
-        <v>1.544271006595486</v>
+        <v>1.5442710065954861</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -3432,7 +3488,7 @@
         <v>7318</v>
       </c>
       <c r="M8">
-        <v>5.240219825717936</v>
+        <v>5.2402198257179364</v>
       </c>
       <c r="N8">
         <v>45070</v>
@@ -3441,7 +3497,7 @@
         <v>6186</v>
       </c>
       <c r="P8">
-        <v>8.343657249142334</v>
+        <v>8.3436572491423338</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3513,7 +3569,7 @@
         <v>5735</v>
       </c>
       <c r="AN8">
-        <v>12.85327454818555</v>
+        <v>12.853274548185549</v>
       </c>
       <c r="AO8">
         <v>223337</v>
@@ -3522,7 +3578,7 @@
         <v>2508</v>
       </c>
       <c r="AQ8">
-        <v>0.6826544911010148</v>
+        <v>0.68265449110101484</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3540,10 +3596,10 @@
         <v>6747</v>
       </c>
       <c r="AW8">
-        <v>3.787008685507507</v>
+        <v>3.7870086855075069</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -3554,7 +3610,7 @@
         <v>4711</v>
       </c>
       <c r="D9">
-        <v>3.593532495839138</v>
+        <v>3.5935324958391379</v>
       </c>
       <c r="E9">
         <v>187760</v>
@@ -3581,7 +3637,7 @@
         <v>10097</v>
       </c>
       <c r="M9">
-        <v>0.7312088689806124</v>
+        <v>0.73120886898061244</v>
       </c>
       <c r="N9">
         <v>249857</v>
@@ -3590,7 +3646,7 @@
         <v>13871</v>
       </c>
       <c r="P9">
-        <v>3.374817933852084</v>
+        <v>3.3748179338520838</v>
       </c>
       <c r="Q9">
         <v>17780</v>
@@ -3599,7 +3655,7 @@
         <v>3354</v>
       </c>
       <c r="S9">
-        <v>11.46741155835764</v>
+        <v>11.467411558357639</v>
       </c>
       <c r="T9">
         <v>182110</v>
@@ -3608,7 +3664,7 @@
         <v>13924</v>
       </c>
       <c r="V9">
-        <v>4.647980720426998</v>
+        <v>4.6479807204269976</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -3626,7 +3682,7 @@
         <v>14039</v>
       </c>
       <c r="AB9">
-        <v>0.8574535351752937</v>
+        <v>0.85745353517529366</v>
       </c>
       <c r="AC9">
         <v>4277</v>
@@ -3635,7 +3691,7 @@
         <v>2043</v>
       </c>
       <c r="AE9">
-        <v>29.03776686354452</v>
+        <v>29.037766863544519</v>
       </c>
       <c r="AF9">
         <v>29186</v>
@@ -3644,7 +3700,7 @@
         <v>3605</v>
       </c>
       <c r="AH9">
-        <v>7.50870061571345</v>
+        <v>7.5087006157134502</v>
       </c>
       <c r="AI9">
         <v>41815</v>
@@ -3662,7 +3718,7 @@
         <v>13588</v>
       </c>
       <c r="AN9">
-        <v>4.197097852627532</v>
+        <v>4.1970978526275324</v>
       </c>
       <c r="AO9">
         <v>1305379</v>
@@ -3671,7 +3727,7 @@
         <v>6245</v>
       </c>
       <c r="AQ9">
-        <v>0.2908237824866668</v>
+        <v>0.29082378248666679</v>
       </c>
       <c r="AR9">
         <v>29253</v>
@@ -3680,7 +3736,7 @@
         <v>2705</v>
       </c>
       <c r="AT9">
-        <v>5.621224830602156</v>
+        <v>5.6212248306021557</v>
       </c>
       <c r="AU9">
         <v>341829</v>
@@ -3692,7 +3748,7 @@
         <v>1.579737237039573</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3703,7 +3759,7 @@
         <v>13889</v>
       </c>
       <c r="D10">
-        <v>2.925010945361895</v>
+        <v>2.9250109453618949</v>
       </c>
       <c r="E10">
         <v>224410</v>
@@ -3730,7 +3786,7 @@
         <v>13133</v>
       </c>
       <c r="M10">
-        <v>1.573461563322064</v>
+        <v>1.5734615633220641</v>
       </c>
       <c r="N10">
         <v>277959</v>
@@ -3748,7 +3804,7 @@
         <v>9503</v>
       </c>
       <c r="S10">
-        <v>5.987479344598149</v>
+        <v>5.9874793445981487</v>
       </c>
       <c r="T10">
         <v>102995</v>
@@ -3757,7 +3813,7 @@
         <v>11267</v>
       </c>
       <c r="V10">
-        <v>6.650070509811687</v>
+        <v>6.6500705098116866</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -3784,7 +3840,7 @@
         <v>2555</v>
       </c>
       <c r="AE10">
-        <v>19.13032995888289</v>
+        <v>19.130329958882889</v>
       </c>
       <c r="AF10">
         <v>29466</v>
@@ -3811,7 +3867,7 @@
         <v>12000</v>
       </c>
       <c r="AN10">
-        <v>5.189909380289788</v>
+        <v>5.1899093802897882</v>
       </c>
       <c r="AO10">
         <v>1179954</v>
@@ -3820,7 +3876,7 @@
         <v>3439</v>
       </c>
       <c r="AQ10">
-        <v>0.1771744921919655</v>
+        <v>0.17717449219196549</v>
       </c>
       <c r="AR10">
         <v>34165</v>
@@ -3829,7 +3885,7 @@
         <v>4312</v>
       </c>
       <c r="AT10">
-        <v>7.672403324292934</v>
+        <v>7.6724033242929339</v>
       </c>
       <c r="AU10">
         <v>331599</v>
@@ -3841,7 +3897,7 @@
         <v>1.9969555090577</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3888,7 +3944,7 @@
         <v>11019</v>
       </c>
       <c r="P11">
-        <v>5.003047504751057</v>
+        <v>5.0030475047510574</v>
       </c>
       <c r="Q11">
         <v>66233</v>
@@ -3897,7 +3953,7 @@
         <v>7436</v>
       </c>
       <c r="S11">
-        <v>6.824943369077858</v>
+        <v>6.8249433690778583</v>
       </c>
       <c r="T11">
         <v>54529</v>
@@ -3906,7 +3962,7 @@
         <v>6253</v>
       </c>
       <c r="V11">
-        <v>6.970998561263042</v>
+        <v>6.9709985612630421</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -3933,7 +3989,7 @@
         <v>2022</v>
       </c>
       <c r="AE11">
-        <v>22.97102095509234</v>
+        <v>22.971020955092339</v>
       </c>
       <c r="AF11">
         <v>46746</v>
@@ -3942,7 +3998,7 @@
         <v>6128</v>
       </c>
       <c r="AH11">
-        <v>7.969083907769297</v>
+        <v>7.9690839077692974</v>
       </c>
       <c r="AI11">
         <v>4807</v>
@@ -3960,7 +4016,7 @@
         <v>3044</v>
       </c>
       <c r="AN11">
-        <v>15.28797031602505</v>
+        <v>15.287970316025049</v>
       </c>
       <c r="AO11">
         <v>801461</v>
@@ -3969,7 +4025,7 @@
         <v>10406</v>
       </c>
       <c r="AQ11">
-        <v>0.789288045988688</v>
+        <v>0.78928804598868796</v>
       </c>
       <c r="AR11">
         <v>33774</v>
@@ -3987,7 +4043,7 @@
         <v>7913</v>
       </c>
       <c r="AW11">
-        <v>1.096245073850005</v>
+        <v>1.0962450738500049</v>
       </c>
     </row>
   </sheetData>
